--- a/data/99. analyzes/excel/pharmas/nach_offenlegung_2016.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_offenlegung_2016.xlsx
@@ -132,9 +132,6 @@
     <t>HRA Pharma</t>
   </si>
   <si>
-    <t>Hoffmann-La Roche</t>
-  </si>
-  <si>
     <t>Janssen Pharmaceutica</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Pierre Fabre</t>
+  </si>
+  <si>
+    <t>Roche Pharma AG</t>
   </si>
   <si>
     <t>Sandoz Pharmaceuticals AG</t>
@@ -1448,28 +1448,28 @@
         <v>38</v>
       </c>
       <c r="B31" t="n">
-        <v>507078</v>
+        <v>2230838</v>
       </c>
       <c r="C31" t="n">
-        <v>2974195</v>
+        <v>738503</v>
       </c>
       <c r="D31" t="n">
-        <v>1576679</v>
+        <v>17893</v>
       </c>
       <c r="E31" t="n">
-        <v>218030</v>
+        <v>39251</v>
       </c>
       <c r="F31" t="n">
-        <v>786564</v>
+        <v>197512</v>
       </c>
       <c r="G31" t="n">
-        <v>57565</v>
+        <v>9982</v>
       </c>
       <c r="H31" t="n">
-        <v>7666519</v>
+        <v>833283</v>
       </c>
       <c r="I31" t="n">
-        <v>13786630</v>
+        <v>4067262</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1477,28 +1477,28 @@
         <v>39</v>
       </c>
       <c r="B32" t="n">
-        <v>2230838</v>
+        <v>24564.24</v>
       </c>
       <c r="C32" t="n">
-        <v>738503</v>
+        <v>186037.19</v>
       </c>
       <c r="D32" t="n">
-        <v>17893</v>
+        <v>803.4400000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>39251</v>
+        <v>6016.98</v>
       </c>
       <c r="F32" t="n">
-        <v>197512</v>
+        <v>38167.8</v>
       </c>
       <c r="G32" t="n">
-        <v>9982</v>
+        <v>2262.41</v>
       </c>
       <c r="H32" t="n">
-        <v>833283</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4067262</v>
+        <v>257852.06</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1506,28 +1506,28 @@
         <v>40</v>
       </c>
       <c r="B33" t="n">
-        <v>24564.24</v>
+        <v>10544</v>
       </c>
       <c r="C33" t="n">
-        <v>186037.19</v>
+        <v>395949</v>
       </c>
       <c r="D33" t="n">
-        <v>803.4400000000001</v>
+        <v>25758.35</v>
       </c>
       <c r="E33" t="n">
-        <v>6016.98</v>
+        <v>63003.85</v>
       </c>
       <c r="F33" t="n">
-        <v>38167.8</v>
+        <v>124997</v>
       </c>
       <c r="G33" t="n">
-        <v>2262.41</v>
+        <v>582</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>85199.5</v>
       </c>
       <c r="I33" t="n">
-        <v>257852.06</v>
+        <v>706033.7</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1535,28 +1535,28 @@
         <v>41</v>
       </c>
       <c r="B34" t="n">
-        <v>10544</v>
+        <v>898661.74</v>
       </c>
       <c r="C34" t="n">
-        <v>395949</v>
+        <v>2236119.93</v>
       </c>
       <c r="D34" t="n">
-        <v>25758.35</v>
+        <v>57536.07</v>
       </c>
       <c r="E34" t="n">
-        <v>63003.85</v>
+        <v>303836.86</v>
       </c>
       <c r="F34" t="n">
-        <v>124997</v>
+        <v>755497.23</v>
       </c>
       <c r="G34" t="n">
-        <v>582</v>
+        <v>19732.86</v>
       </c>
       <c r="H34" t="n">
-        <v>85199.5</v>
+        <v>2242292.81</v>
       </c>
       <c r="I34" t="n">
-        <v>706033.7</v>
+        <v>6513677.5</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1564,28 +1564,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="n">
-        <v>898661.74</v>
+        <v>10348</v>
       </c>
       <c r="C35" t="n">
-        <v>2236119.93</v>
+        <v>671294</v>
       </c>
       <c r="D35" t="n">
-        <v>57536.07</v>
+        <v>12241</v>
       </c>
       <c r="E35" t="n">
-        <v>303836.86</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>755497.23</v>
+        <v>174829</v>
       </c>
       <c r="G35" t="n">
-        <v>19732.86</v>
+        <v>1604</v>
       </c>
       <c r="H35" t="n">
-        <v>2242292.81</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6513677.5</v>
+        <v>870316</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>43</v>
       </c>
       <c r="B36" t="n">
-        <v>10348</v>
+        <v>3550438.19</v>
       </c>
       <c r="C36" t="n">
-        <v>671294</v>
+        <v>1121184.56</v>
       </c>
       <c r="D36" t="n">
-        <v>12241</v>
+        <v>70271.52</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>200813.66</v>
       </c>
       <c r="F36" t="n">
-        <v>174829</v>
+        <v>153237.26</v>
       </c>
       <c r="G36" t="n">
-        <v>1604</v>
+        <v>19674.54</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>309361</v>
       </c>
       <c r="I36" t="n">
-        <v>870316</v>
+        <v>5424980.73</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>44</v>
       </c>
       <c r="B37" t="n">
-        <v>3550438.19</v>
+        <v>590313.7</v>
       </c>
       <c r="C37" t="n">
-        <v>1121184.56</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>70271.52</v>
+        <v>21977</v>
       </c>
       <c r="E37" t="n">
-        <v>200813.66</v>
+        <v>55351</v>
       </c>
       <c r="F37" t="n">
-        <v>153237.26</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>19674.54</v>
+        <v>55133</v>
       </c>
       <c r="H37" t="n">
-        <v>309361</v>
+        <v>149847</v>
       </c>
       <c r="I37" t="n">
-        <v>5424980.73</v>
+        <v>872621.7</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="n">
-        <v>590313.7</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>283760</v>
       </c>
       <c r="D38" t="n">
-        <v>21977</v>
+        <v>8078</v>
       </c>
       <c r="E38" t="n">
-        <v>55351</v>
+        <v>9558</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>33700</v>
       </c>
       <c r="G38" t="n">
-        <v>55133</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>149847</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>872621.7</v>
+        <v>335096</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1683,16 +1683,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>283760</v>
+        <v>10000</v>
       </c>
       <c r="D39" t="n">
-        <v>8078</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>9558</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>33700</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>335096</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>47</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1952068.9</v>
       </c>
       <c r="C40" t="n">
-        <v>10000</v>
+        <v>5414318.17</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>282801.94</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>271875.48</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2965684.23</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>131112.98</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>12053857.16</v>
       </c>
       <c r="I40" t="n">
-        <v>10000</v>
+        <v>23071718.86</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="n">
-        <v>1952068.9</v>
+        <v>1010308</v>
       </c>
       <c r="C41" t="n">
-        <v>5414318.17</v>
+        <v>167188</v>
       </c>
       <c r="D41" t="n">
-        <v>282801.94</v>
+        <v>93337</v>
       </c>
       <c r="E41" t="n">
-        <v>271875.48</v>
+        <v>267571.24</v>
       </c>
       <c r="F41" t="n">
-        <v>2965684.23</v>
+        <v>207284.26</v>
       </c>
       <c r="G41" t="n">
-        <v>131112.98</v>
+        <v>19083.6</v>
       </c>
       <c r="H41" t="n">
-        <v>12053857.16</v>
+        <v>273102</v>
       </c>
       <c r="I41" t="n">
-        <v>23071718.86</v>
+        <v>2037874.1</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1767,28 +1767,28 @@
         <v>49</v>
       </c>
       <c r="B42" t="n">
-        <v>1010308</v>
+        <v>140786</v>
       </c>
       <c r="C42" t="n">
-        <v>167188</v>
+        <v>10174.64</v>
       </c>
       <c r="D42" t="n">
-        <v>93337</v>
+        <v>29049.98</v>
       </c>
       <c r="E42" t="n">
-        <v>267571.24</v>
+        <v>14550</v>
       </c>
       <c r="F42" t="n">
-        <v>207284.26</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>19083.6</v>
+        <v>190305.14</v>
       </c>
       <c r="H42" t="n">
-        <v>273102</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2037874.1</v>
+        <v>384865.76</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1796,28 +1796,28 @@
         <v>50</v>
       </c>
       <c r="B43" t="n">
-        <v>140786</v>
+        <v>71985.10000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>10174.64</v>
+        <v>129977.4</v>
       </c>
       <c r="D43" t="n">
-        <v>29049.98</v>
+        <v>8214.75</v>
       </c>
       <c r="E43" t="n">
-        <v>14550</v>
+        <v>18465.02</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>49745.38</v>
       </c>
       <c r="G43" t="n">
-        <v>190305.14</v>
+        <v>805.62</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="I43" t="n">
-        <v>384865.76</v>
+        <v>314193.27</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1825,28 +1825,28 @@
         <v>51</v>
       </c>
       <c r="B44" t="n">
-        <v>71985.10000000001</v>
+        <v>2485715</v>
       </c>
       <c r="C44" t="n">
-        <v>129977.4</v>
+        <v>4513102</v>
       </c>
       <c r="D44" t="n">
-        <v>8214.75</v>
+        <v>68299</v>
       </c>
       <c r="E44" t="n">
-        <v>18465.02</v>
+        <v>264015</v>
       </c>
       <c r="F44" t="n">
-        <v>49745.38</v>
+        <v>702291</v>
       </c>
       <c r="G44" t="n">
-        <v>805.62</v>
+        <v>24424</v>
       </c>
       <c r="H44" t="n">
-        <v>35000</v>
+        <v>3214108</v>
       </c>
       <c r="I44" t="n">
-        <v>314193.27</v>
+        <v>11271954</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1854,28 +1854,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="n">
-        <v>2485715</v>
+        <v>2667</v>
       </c>
       <c r="C45" t="n">
-        <v>4513102</v>
+        <v>180424.5</v>
       </c>
       <c r="D45" t="n">
-        <v>68299</v>
+        <v>48357.81</v>
       </c>
       <c r="E45" t="n">
-        <v>264015</v>
+        <v>22048.19</v>
       </c>
       <c r="F45" t="n">
-        <v>702291</v>
+        <v>13346.6</v>
       </c>
       <c r="G45" t="n">
-        <v>24424</v>
+        <v>651.65</v>
       </c>
       <c r="H45" t="n">
-        <v>3214108</v>
+        <v>1500</v>
       </c>
       <c r="I45" t="n">
-        <v>11271954</v>
+        <v>268995.75</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1883,28 +1883,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="n">
-        <v>2667</v>
+        <v>507078</v>
       </c>
       <c r="C46" t="n">
-        <v>180424.5</v>
+        <v>2974195</v>
       </c>
       <c r="D46" t="n">
-        <v>48357.81</v>
+        <v>1576679</v>
       </c>
       <c r="E46" t="n">
-        <v>22048.19</v>
+        <v>218030</v>
       </c>
       <c r="F46" t="n">
-        <v>13346.6</v>
+        <v>786564</v>
       </c>
       <c r="G46" t="n">
-        <v>651.65</v>
+        <v>57565</v>
       </c>
       <c r="H46" t="n">
-        <v>1500</v>
+        <v>7666519</v>
       </c>
       <c r="I46" t="n">
-        <v>268995.75</v>
+        <v>13786630</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4023,28 +4023,28 @@
         <v>65</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>499807</v>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>264329</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>16265</v>
       </c>
       <c r="F58" t="n">
-        <v>15</v>
+        <v>36248</v>
       </c>
       <c r="G58" t="n">
-        <v>51</v>
+        <v>118187</v>
       </c>
       <c r="H58" t="n">
-        <v>9</v>
+        <v>9437</v>
       </c>
       <c r="I58" t="n">
-        <v>7666519</v>
+        <v>833283</v>
       </c>
       <c r="J58" t="n">
-        <v>7666608</v>
+        <v>1777556</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4053,28 +4053,28 @@
         <v>66</v>
       </c>
       <c r="C59" t="n">
-        <v>507078</v>
+        <v>1731031</v>
       </c>
       <c r="D59" t="n">
-        <v>2974189</v>
+        <v>474174</v>
       </c>
       <c r="E59" t="n">
-        <v>1576671</v>
+        <v>1628</v>
       </c>
       <c r="F59" t="n">
-        <v>218015</v>
+        <v>3003</v>
       </c>
       <c r="G59" t="n">
-        <v>786513</v>
+        <v>79325</v>
       </c>
       <c r="H59" t="n">
-        <v>57556</v>
+        <v>545</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>6120022</v>
+        <v>2289706</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4085,28 +4085,28 @@
         <v>65</v>
       </c>
       <c r="C60" t="n">
-        <v>499807</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>264329</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>16265</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>36248</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>118187</v>
+        <v>2250</v>
       </c>
       <c r="H60" t="n">
-        <v>9437</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>833283</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1777556</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4115,28 +4115,28 @@
         <v>66</v>
       </c>
       <c r="C61" t="n">
-        <v>1731031</v>
+        <v>24564.24</v>
       </c>
       <c r="D61" t="n">
-        <v>474174</v>
+        <v>186037.19</v>
       </c>
       <c r="E61" t="n">
-        <v>1628</v>
+        <v>803.4400000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>3003</v>
+        <v>6016.98</v>
       </c>
       <c r="G61" t="n">
-        <v>79325</v>
+        <v>35917.8</v>
       </c>
       <c r="H61" t="n">
-        <v>545</v>
+        <v>2262.41</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2289706</v>
+        <v>255602.06</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4153,22 +4153,22 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>161.35</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>680.85</v>
       </c>
       <c r="G62" t="n">
-        <v>2250</v>
+        <v>500</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>85199.5</v>
       </c>
       <c r="J62" t="n">
-        <v>2250</v>
+        <v>86541.7</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4177,28 +4177,28 @@
         <v>66</v>
       </c>
       <c r="C63" t="n">
-        <v>24564.24</v>
+        <v>10544</v>
       </c>
       <c r="D63" t="n">
-        <v>186037.19</v>
+        <v>395949</v>
       </c>
       <c r="E63" t="n">
-        <v>803.4400000000001</v>
+        <v>25597</v>
       </c>
       <c r="F63" t="n">
-        <v>6016.98</v>
+        <v>62323</v>
       </c>
       <c r="G63" t="n">
-        <v>35917.8</v>
+        <v>124497</v>
       </c>
       <c r="H63" t="n">
-        <v>2262.41</v>
+        <v>582</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>255602.06</v>
+        <v>619492</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4209,28 +4209,28 @@
         <v>65</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>297568.17</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>696029.11</v>
       </c>
       <c r="E64" t="n">
-        <v>161.35</v>
+        <v>26725.38</v>
       </c>
       <c r="F64" t="n">
-        <v>680.85</v>
+        <v>133593.7</v>
       </c>
       <c r="G64" t="n">
-        <v>500</v>
+        <v>379856.2</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>13550.57</v>
       </c>
       <c r="I64" t="n">
-        <v>85199.5</v>
+        <v>2242292.81</v>
       </c>
       <c r="J64" t="n">
-        <v>86541.7</v>
+        <v>3789615.94</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4239,28 +4239,28 @@
         <v>66</v>
       </c>
       <c r="C65" t="n">
-        <v>10544</v>
+        <v>601093.5699999999</v>
       </c>
       <c r="D65" t="n">
-        <v>395949</v>
+        <v>1540090.82</v>
       </c>
       <c r="E65" t="n">
-        <v>25597</v>
+        <v>30810.69</v>
       </c>
       <c r="F65" t="n">
-        <v>62323</v>
+        <v>170243.16</v>
       </c>
       <c r="G65" t="n">
-        <v>124497</v>
+        <v>375641.03</v>
       </c>
       <c r="H65" t="n">
-        <v>582</v>
+        <v>6182.29</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>619492</v>
+        <v>2724061.56</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4271,28 +4271,28 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>297568.17</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>696029.11</v>
+        <v>9586</v>
       </c>
       <c r="E66" t="n">
-        <v>26725.38</v>
+        <v>833</v>
       </c>
       <c r="F66" t="n">
-        <v>133593.7</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>379856.2</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>13550.57</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>2242292.81</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>3789615.94</v>
+        <v>10419</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4301,28 +4301,28 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>601093.5699999999</v>
+        <v>10348</v>
       </c>
       <c r="D67" t="n">
-        <v>1540090.82</v>
+        <v>661708</v>
       </c>
       <c r="E67" t="n">
-        <v>30810.69</v>
+        <v>11408</v>
       </c>
       <c r="F67" t="n">
-        <v>170243.16</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>375641.03</v>
+        <v>174829</v>
       </c>
       <c r="H67" t="n">
-        <v>6182.29</v>
+        <v>1604</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2724061.56</v>
+        <v>859897</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4336,25 +4336,25 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>9586</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>833</v>
+        <v>18629.7</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>67112.75999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>75327.52</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>19145.61</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>309361</v>
       </c>
       <c r="J68" t="n">
-        <v>10419</v>
+        <v>489576.59</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4363,28 +4363,28 @@
         <v>66</v>
       </c>
       <c r="C69" t="n">
-        <v>10348</v>
+        <v>3550438.19</v>
       </c>
       <c r="D69" t="n">
-        <v>661708</v>
+        <v>1121184.56</v>
       </c>
       <c r="E69" t="n">
-        <v>11408</v>
+        <v>51641.82</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>133700.9</v>
       </c>
       <c r="G69" t="n">
-        <v>174829</v>
+        <v>77909.74000000001</v>
       </c>
       <c r="H69" t="n">
-        <v>1604</v>
+        <v>528.9299999999999</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>859897</v>
+        <v>4935404.14</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4401,22 +4401,22 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>18629.7</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>67112.75999999999</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>75327.52</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>19145.61</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>309361</v>
+        <v>149847</v>
       </c>
       <c r="J70" t="n">
-        <v>489576.59</v>
+        <v>149847</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4425,28 +4425,28 @@
         <v>66</v>
       </c>
       <c r="C71" t="n">
-        <v>3550438.19</v>
+        <v>590313.7</v>
       </c>
       <c r="D71" t="n">
-        <v>1121184.56</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>51641.82</v>
+        <v>21977</v>
       </c>
       <c r="F71" t="n">
-        <v>133700.9</v>
+        <v>55351</v>
       </c>
       <c r="G71" t="n">
-        <v>77909.74000000001</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>528.9299999999999</v>
+        <v>55133</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>4935404.14</v>
+        <v>722774.7</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -4475,10 +4475,10 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>149847</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>149847</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4487,28 +4487,28 @@
         <v>66</v>
       </c>
       <c r="C73" t="n">
-        <v>590313.7</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>275760</v>
       </c>
       <c r="E73" t="n">
-        <v>21977</v>
+        <v>8078</v>
       </c>
       <c r="F73" t="n">
-        <v>55351</v>
+        <v>9558</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>33700</v>
       </c>
       <c r="H73" t="n">
-        <v>55133</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>722774.7</v>
+        <v>327096</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4516,93 +4516,93 @@
         <v>46</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>8000</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1" t="n"/>
-      <c r="B75" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>275760</v>
+        <v>1000</v>
       </c>
       <c r="E75" t="n">
-        <v>8078</v>
+        <v>1550</v>
       </c>
       <c r="F75" t="n">
-        <v>9558</v>
+        <v>9251.4</v>
       </c>
       <c r="G75" t="n">
-        <v>33700</v>
+        <v>63751.55</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>999.4299999999999</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>12053857.16</v>
       </c>
       <c r="J75" t="n">
-        <v>327096</v>
+        <v>12130409.54</v>
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A76" s="1" t="n"/>
       <c r="B76" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1952068.9</v>
       </c>
       <c r="D76" t="n">
-        <v>10000</v>
+        <v>5413318.17</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>281251.94</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>262624.08</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2901932.68</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>130113.55</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>10000</v>
+        <v>10941309.32</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4613,28 +4613,28 @@
         <v>65</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="D77" t="n">
-        <v>1000</v>
+        <v>17259</v>
       </c>
       <c r="E77" t="n">
-        <v>1550</v>
+        <v>3753</v>
       </c>
       <c r="F77" t="n">
-        <v>9251.4</v>
+        <v>18433</v>
       </c>
       <c r="G77" t="n">
-        <v>63751.55</v>
+        <v>57652</v>
       </c>
       <c r="H77" t="n">
-        <v>999.4299999999999</v>
+        <v>14943</v>
       </c>
       <c r="I77" t="n">
-        <v>12053857.16</v>
+        <v>273102</v>
       </c>
       <c r="J77" t="n">
-        <v>12130409.54</v>
+        <v>685142</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4643,28 +4643,28 @@
         <v>66</v>
       </c>
       <c r="C78" t="n">
-        <v>1952068.9</v>
+        <v>710308</v>
       </c>
       <c r="D78" t="n">
-        <v>5413318.17</v>
+        <v>149929</v>
       </c>
       <c r="E78" t="n">
-        <v>281251.94</v>
+        <v>89584</v>
       </c>
       <c r="F78" t="n">
-        <v>262624.08</v>
+        <v>249138.24</v>
       </c>
       <c r="G78" t="n">
-        <v>2901932.68</v>
+        <v>149632.26</v>
       </c>
       <c r="H78" t="n">
-        <v>130113.55</v>
+        <v>4140.6</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>10941309.32</v>
+        <v>1352732.1</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4675,28 +4675,28 @@
         <v>65</v>
       </c>
       <c r="C79" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>17259</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>3753</v>
+        <v>5055.53</v>
       </c>
       <c r="F79" t="n">
-        <v>18433</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>57652</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>14943</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>273102</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>685142</v>
+        <v>5055.53</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4705,28 +4705,28 @@
         <v>66</v>
       </c>
       <c r="C80" t="n">
-        <v>710308</v>
+        <v>140786</v>
       </c>
       <c r="D80" t="n">
-        <v>149929</v>
+        <v>10174.64</v>
       </c>
       <c r="E80" t="n">
-        <v>89584</v>
+        <v>23994.45</v>
       </c>
       <c r="F80" t="n">
-        <v>249138.24</v>
+        <v>14550</v>
       </c>
       <c r="G80" t="n">
-        <v>149632.26</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>4140.6</v>
+        <v>190305.14</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1352732.1</v>
+        <v>379810.23</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4743,22 +4743,22 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>5055.53</v>
+        <v>340.7</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1762.52</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>7461</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>734.14</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="J81" t="n">
-        <v>5055.53</v>
+        <v>45298.36</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4767,28 +4767,28 @@
         <v>66</v>
       </c>
       <c r="C82" t="n">
-        <v>140786</v>
+        <v>71985.10000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>10174.64</v>
+        <v>129977.4</v>
       </c>
       <c r="E82" t="n">
-        <v>23994.45</v>
+        <v>7874.05</v>
       </c>
       <c r="F82" t="n">
-        <v>14550</v>
+        <v>16702.5</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>42284.38</v>
       </c>
       <c r="H82" t="n">
-        <v>190305.14</v>
+        <v>71.48</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>379810.23</v>
+        <v>268894.91</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4799,28 +4799,28 @@
         <v>65</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>2176709</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1137405</v>
       </c>
       <c r="E83" t="n">
-        <v>340.7</v>
+        <v>4703</v>
       </c>
       <c r="F83" t="n">
-        <v>1762.52</v>
+        <v>19737</v>
       </c>
       <c r="G83" t="n">
-        <v>7461</v>
+        <v>252874</v>
       </c>
       <c r="H83" t="n">
-        <v>734.14</v>
+        <v>6059</v>
       </c>
       <c r="I83" t="n">
-        <v>35000</v>
+        <v>3214108</v>
       </c>
       <c r="J83" t="n">
-        <v>45298.36</v>
+        <v>6811595</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4829,28 +4829,28 @@
         <v>66</v>
       </c>
       <c r="C84" t="n">
-        <v>71985.10000000001</v>
+        <v>309006</v>
       </c>
       <c r="D84" t="n">
-        <v>129977.4</v>
+        <v>3375697</v>
       </c>
       <c r="E84" t="n">
-        <v>7874.05</v>
+        <v>63596</v>
       </c>
       <c r="F84" t="n">
-        <v>16702.5</v>
+        <v>244278</v>
       </c>
       <c r="G84" t="n">
-        <v>42284.38</v>
+        <v>449417</v>
       </c>
       <c r="H84" t="n">
-        <v>71.48</v>
+        <v>18365</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>268894.91</v>
+        <v>4460359</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4861,28 +4861,28 @@
         <v>65</v>
       </c>
       <c r="C85" t="n">
-        <v>2176709</v>
+        <v>2667</v>
       </c>
       <c r="D85" t="n">
-        <v>1137405</v>
+        <v>45984.5</v>
       </c>
       <c r="E85" t="n">
-        <v>4703</v>
+        <v>3312.8</v>
       </c>
       <c r="F85" t="n">
-        <v>19737</v>
+        <v>5922.43</v>
       </c>
       <c r="G85" t="n">
-        <v>252874</v>
+        <v>6375</v>
       </c>
       <c r="H85" t="n">
-        <v>6059</v>
+        <v>461.4</v>
       </c>
       <c r="I85" t="n">
-        <v>3214108</v>
+        <v>1500</v>
       </c>
       <c r="J85" t="n">
-        <v>6811595</v>
+        <v>66223.13</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4891,28 +4891,28 @@
         <v>66</v>
       </c>
       <c r="C86" t="n">
-        <v>309006</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>3375697</v>
+        <v>134440</v>
       </c>
       <c r="E86" t="n">
-        <v>63596</v>
+        <v>45045.01</v>
       </c>
       <c r="F86" t="n">
-        <v>244278</v>
+        <v>16125.76</v>
       </c>
       <c r="G86" t="n">
-        <v>449417</v>
+        <v>6971.6</v>
       </c>
       <c r="H86" t="n">
-        <v>18365</v>
+        <v>190.25</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>4460359</v>
+        <v>202772.62</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4923,28 +4923,28 @@
         <v>65</v>
       </c>
       <c r="C87" t="n">
-        <v>2667</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>45984.5</v>
+        <v>6</v>
       </c>
       <c r="E87" t="n">
-        <v>3312.8</v>
+        <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>5922.43</v>
+        <v>15</v>
       </c>
       <c r="G87" t="n">
-        <v>6375</v>
+        <v>51</v>
       </c>
       <c r="H87" t="n">
-        <v>461.4</v>
+        <v>9</v>
       </c>
       <c r="I87" t="n">
-        <v>1500</v>
+        <v>7666519</v>
       </c>
       <c r="J87" t="n">
-        <v>66223.13</v>
+        <v>7666608</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4953,28 +4953,28 @@
         <v>66</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>507078</v>
       </c>
       <c r="D88" t="n">
-        <v>134440</v>
+        <v>2974189</v>
       </c>
       <c r="E88" t="n">
-        <v>45045.01</v>
+        <v>1576671</v>
       </c>
       <c r="F88" t="n">
-        <v>16125.76</v>
+        <v>218015</v>
       </c>
       <c r="G88" t="n">
-        <v>6971.6</v>
+        <v>786513</v>
       </c>
       <c r="H88" t="n">
-        <v>190.25</v>
+        <v>57556</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>202772.62</v>
+        <v>6120022</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -5664,7 +5664,7 @@
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A75:A76"/>
     <mergeCell ref="A77:A78"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="A81:A82"/>
